--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_5.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999763168669014</v>
+        <v>0.9999813134638444</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991229130401531</v>
+        <v>0.9990447770649925</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999875343478447</v>
+        <v>0.9999992265959929</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999894371149554</v>
+        <v>0.9999985115573559</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999892727573905</v>
+        <v>0.999998814309332</v>
       </c>
       <c r="G2" t="n">
-        <v>2.210716517823648e-05</v>
+        <v>1.744306125710068e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008187221773490831</v>
+        <v>0.0008916586803886532</v>
       </c>
       <c r="I2" t="n">
-        <v>1.455293145083176e-05</v>
+        <v>2.069598509000106e-07</v>
       </c>
       <c r="J2" t="n">
-        <v>5.223361784456936e-06</v>
+        <v>7.387518700893457e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>9.887237494931887e-06</v>
+        <v>4.728558604946781e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003741764043472994</v>
+        <v>0.0002234667497998211</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004701825728186497</v>
+        <v>0.004176489106546392</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000027066437827</v>
+        <v>1.000021356041321</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004901992183556431</v>
+        <v>0.004354290894336383</v>
       </c>
       <c r="P2" t="n">
-        <v>111.439217571555</v>
+        <v>111.9131372481802</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.288629690624</v>
+        <v>166.7625493672492</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999794889276727</v>
+        <v>0.9999844968916618</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991136705889202</v>
+        <v>0.9990346772899149</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999890475333483</v>
+        <v>0.999997403989573</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999786376156613</v>
+        <v>0.9999954156331861</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999873324250621</v>
+        <v>0.9999962760345584</v>
       </c>
       <c r="G3" t="n">
-        <v>1.914618568547918e-05</v>
+        <v>1.44714711258767e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000827349599878322</v>
+        <v>0.0009010863770946915</v>
       </c>
       <c r="I3" t="n">
-        <v>1.278637446432776e-05</v>
+        <v>6.946821143454405e-07</v>
       </c>
       <c r="J3" t="n">
-        <v>1.056372965414168e-05</v>
+        <v>2.275337629124116e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>1.167563058417197e-05</v>
+        <v>1.485125025302788e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003709766190376647</v>
+        <v>0.0002202465779417548</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004375635460762148</v>
+        <v>0.003804138683838524</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000023441225517</v>
+        <v>1.000017717838101</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004561915321140889</v>
+        <v>0.003966088743262207</v>
       </c>
       <c r="P3" t="n">
-        <v>111.7268140861834</v>
+        <v>112.286662710371</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.5762262052524</v>
+        <v>167.13607482944</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999814351690144</v>
+        <v>0.9999868555476965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991048706210068</v>
+        <v>0.9990251984619998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999902402104943</v>
+        <v>0.9999948500369261</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999625154046995</v>
+        <v>0.999990998646243</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999837626612653</v>
+        <v>0.9999926694177569</v>
       </c>
       <c r="G4" t="n">
-        <v>1.732945482314756e-05</v>
+        <v>1.226976925058736e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008355639836514934</v>
+        <v>0.0009099344468809897</v>
       </c>
       <c r="I4" t="n">
-        <v>1.139399253902222e-05</v>
+        <v>1.378109733213157e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>1.853618606757454e-05</v>
+        <v>4.467600379188014e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>1.496586123749766e-05</v>
+        <v>2.923451173225556e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003680540078451845</v>
+        <v>0.0002176433447867743</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004162866178866137</v>
+        <v>0.003502823040147384</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000021216949698</v>
+        <v>1.000015022231204</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004340088010421433</v>
+        <v>0.003651945468809765</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9262058265841</v>
+        <v>112.6167442108028</v>
       </c>
       <c r="Q4" t="n">
-        <v>166.7756179456531</v>
+        <v>167.4661563298718</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999824568083935</v>
+        <v>0.9999885847386568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990962644462255</v>
+        <v>0.9990163590227975</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999911750850909</v>
+        <v>0.9999918556823947</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999428917336306</v>
+        <v>0.9999857542656172</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999790913634703</v>
+        <v>0.999988401417507</v>
       </c>
       <c r="G5" t="n">
-        <v>1.637579930753026e-05</v>
+        <v>1.065564539179304e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008435974700424561</v>
+        <v>0.0009181856753697524</v>
       </c>
       <c r="I5" t="n">
-        <v>1.030258025265699e-05</v>
+        <v>2.179387153139401e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>2.824011951936427e-05</v>
+        <v>7.070519618347808e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>1.927136940864677e-05</v>
+        <v>4.625538391406697e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00036462708620233</v>
+        <v>0.000215933848299062</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00404670227562274</v>
+        <v>0.003264298606407361</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000020049361836</v>
+        <v>1.000013046012964</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004218978769324533</v>
+        <v>0.003403266556111783</v>
       </c>
       <c r="P5" t="n">
-        <v>112.0394119299213</v>
+        <v>112.8988414450343</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.8888240489903</v>
+        <v>167.7482535641034</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999827940946712</v>
+        <v>0.9999898239498466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999088300467647</v>
+        <v>0.9990081620484285</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999918992807489</v>
+        <v>0.9999885991649715</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999210876920928</v>
+        <v>0.9999800662476608</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999737017277442</v>
+        <v>0.9999837726694323</v>
       </c>
       <c r="G6" t="n">
-        <v>1.60609573725198e-05</v>
+        <v>9.498896141244474e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000851031494467229</v>
+        <v>0.0009258371911377281</v>
       </c>
       <c r="I6" t="n">
-        <v>9.45712350179835e-06</v>
+        <v>3.050818325152131e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>3.90222492910563e-05</v>
+        <v>9.893627326903611e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>2.423896549780458e-05</v>
+        <v>6.471492579076211e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003609544919518785</v>
+        <v>0.0002142624601312023</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004007612427932597</v>
+        <v>0.003082027926746361</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000019663891804</v>
+        <v>1.000011629771604</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004178224785891081</v>
+        <v>0.003213236236265292</v>
       </c>
       <c r="P6" t="n">
-        <v>112.0782384779716</v>
+        <v>113.128669923535</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.9276505970406</v>
+        <v>167.978082042604</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999826528146885</v>
+        <v>0.9999906824102512</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990810243929109</v>
+        <v>0.9990005819653457</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999924700224853</v>
+        <v>0.9999852931732528</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999898519568277</v>
+        <v>0.9999741393092813</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999680083518887</v>
+        <v>0.99997897297668</v>
       </c>
       <c r="G7" t="n">
-        <v>1.619283603485619e-05</v>
+        <v>8.697561035515508e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008578233908506194</v>
+        <v>0.0009329128659682469</v>
       </c>
       <c r="I7" t="n">
-        <v>8.790815372846126e-06</v>
+        <v>3.935488622826314e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>5.018221884369826e-05</v>
+        <v>1.283531730673579e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>2.948651710827219e-05</v>
+        <v>8.385619853352801e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003569118826479765</v>
+        <v>0.000212410066289292</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004024032310364342</v>
+        <v>0.002949162768569329</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000019825354642</v>
+        <v>1.000010648673999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004195343696711789</v>
+        <v>0.00307471473323587</v>
       </c>
       <c r="P7" t="n">
-        <v>112.0618832672093</v>
+        <v>113.3049358247038</v>
       </c>
       <c r="Q7" t="n">
-        <v>166.9112953862784</v>
+        <v>168.1543479437728</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999821402943935</v>
+        <v>0.9999912517014384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990741681695836</v>
+        <v>0.9989936285663723</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999928887786035</v>
+        <v>0.9999819938714467</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998755223056301</v>
+        <v>0.9999681950105305</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999962105547621</v>
+        <v>0.9999741683595642</v>
       </c>
       <c r="G8" t="n">
-        <v>1.667125123318745e-05</v>
+        <v>8.166152701333196e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008642233743732455</v>
+        <v>0.0009394035586909864</v>
       </c>
       <c r="I8" t="n">
-        <v>8.30194170559204e-06</v>
+        <v>4.818368726327392e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>6.155439816296404e-05</v>
+        <v>1.578562367953286e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.492709767542129e-05</v>
+        <v>1.030171097385288e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003535889765170857</v>
+        <v>0.0002106496937389063</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004083044358464337</v>
+        <v>0.002857648106631255</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000020411092122</v>
+        <v>1.000009998055499</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00425686800987118</v>
+        <v>0.002979304102677626</v>
       </c>
       <c r="P8" t="n">
-        <v>112.0036496100778</v>
+        <v>113.4310253311856</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.8530617291468</v>
+        <v>168.2804374502546</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999813147506439</v>
+        <v>0.9999916031740809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990678266158629</v>
+        <v>0.9989871962942023</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999931725202531</v>
+        <v>0.9999787513015492</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998521348419536</v>
+        <v>0.9999624103222949</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999560096093641</v>
+        <v>0.9999694801226087</v>
       </c>
       <c r="G9" t="n">
-        <v>1.744186008629874e-05</v>
+        <v>7.838068417468324e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008701429364094682</v>
+        <v>0.0009454078024175835</v>
       </c>
       <c r="I9" t="n">
-        <v>7.970689659942307e-06</v>
+        <v>5.686067595695922e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>7.311953245030374e-05</v>
+        <v>1.865671130168355e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>4.054568872386011e-05</v>
+        <v>1.217138944868973e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003513187401419667</v>
+        <v>0.0002093948086243648</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004176345302570029</v>
+        <v>0.002799655053300017</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000021354570693</v>
+        <v>1.000009596372479</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00435414096832703</v>
+        <v>0.002918842165003908</v>
       </c>
       <c r="P9" t="n">
-        <v>111.9132749776927</v>
+        <v>113.5130362585605</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.7626870967617</v>
+        <v>168.3624483776296</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999803152414816</v>
+        <v>0.9999917863536822</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990619589564508</v>
+        <v>0.9989813862305994</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999993357152976</v>
+        <v>0.9999757150885846</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998293259765246</v>
+        <v>0.9999567593785094</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999500084657067</v>
+        <v>0.9999649452256281</v>
       </c>
       <c r="G10" t="n">
-        <v>1.837485801593474e-05</v>
+        <v>7.667078300206079e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008756201389102253</v>
+        <v>0.0009508312417585065</v>
       </c>
       <c r="I10" t="n">
-        <v>7.755141582234256e-06</v>
+        <v>6.498546166628591e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>8.439854907544786e-05</v>
+        <v>2.146141815812272e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>4.607690813803767e-05</v>
+        <v>1.397991562831723e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003491726422972484</v>
+        <v>0.000208361556905399</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004286590488480879</v>
+        <v>0.00276894895225717</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000022496866878</v>
+        <v>1.000009387024363</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004469079520041102</v>
+        <v>0.002886828841669275</v>
       </c>
       <c r="P10" t="n">
-        <v>111.8090544798384</v>
+        <v>113.5571498816267</v>
       </c>
       <c r="Q10" t="n">
-        <v>166.6584665989074</v>
+        <v>168.4065620006957</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999791964843228</v>
+        <v>0.9999918469633368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990565248624822</v>
+        <v>0.9989760116625017</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999934618565189</v>
+        <v>0.9999727780019934</v>
       </c>
       <c r="E11" t="n">
-        <v>0.99980726920051</v>
+        <v>0.999951413806677</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999944157964458</v>
+        <v>0.9999606332757771</v>
       </c>
       <c r="G11" t="n">
-        <v>1.941916871586189e-05</v>
+        <v>7.610501848177484e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008806926271007578</v>
+        <v>0.0009558481651614182</v>
       </c>
       <c r="I11" t="n">
-        <v>7.632906221918588e-06</v>
+        <v>7.284498912425539e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>9.530565640798437e-05</v>
+        <v>2.411456116191729e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>5.146928131495148e-05</v>
+        <v>1.569953003717141e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003472087684054211</v>
+        <v>0.0002075022660609506</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004406718588231145</v>
+        <v>0.002758713803238293</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000023775446488</v>
+        <v>1.000009317756187</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004594321721697184</v>
+        <v>0.002876157961166984</v>
       </c>
       <c r="P11" t="n">
-        <v>111.6984998031713</v>
+        <v>113.571962884762</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.5479119222404</v>
+        <v>168.421375003831</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999780293851437</v>
+        <v>0.9999918137951214</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990516463508251</v>
+        <v>0.9989710903282991</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999935196543879</v>
+        <v>0.9999699863828045</v>
       </c>
       <c r="E12" t="n">
-        <v>0.99978637492264</v>
+        <v>0.9999463222409393</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999385883388806</v>
+        <v>0.9999565333712735</v>
       </c>
       <c r="G12" t="n">
-        <v>2.050860456985288e-05</v>
+        <v>7.641462921365515e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008852465035907212</v>
+        <v>0.0009604420146179415</v>
       </c>
       <c r="I12" t="n">
-        <v>7.565430536355967e-06</v>
+        <v>8.03152515716033e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001056379067428805</v>
+        <v>2.664163449273408e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>5.660277300947273e-05</v>
+        <v>1.733458032836507e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003453763964096969</v>
+        <v>0.000206708234473794</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004528642685159967</v>
+        <v>0.002764319612737557</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000025109274121</v>
+        <v>1.000009355662719</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004721436379849941</v>
+        <v>0.002882002421582257</v>
       </c>
       <c r="P12" t="n">
-        <v>111.5893320495386</v>
+        <v>113.5638429825241</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.4387441686076</v>
+        <v>168.4132551015931</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999768139906632</v>
+        <v>0.9999917120420405</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990471529006124</v>
+        <v>0.9989666372439899</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999935298824796</v>
+        <v>0.9999673986006273</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997663294643013</v>
+        <v>0.9999415129789948</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999332168619052</v>
+        <v>0.9999526704217923</v>
       </c>
       <c r="G13" t="n">
-        <v>2.164312196773711e-05</v>
+        <v>7.736444955824249e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008894409421246058</v>
+        <v>0.0009645987733527951</v>
       </c>
       <c r="I13" t="n">
-        <v>7.553489827916807e-06</v>
+        <v>8.724005424430815e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001155504146036802</v>
+        <v>2.902859328434139e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>6.155363228318291e-05</v>
+        <v>1.887513247263992e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003437719627961777</v>
+        <v>0.0002059539925310264</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004652216887435183</v>
+        <v>0.002781446558146363</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000026498296385</v>
+        <v>1.000009471951954</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004850271391749877</v>
+        <v>0.002899858496514781</v>
       </c>
       <c r="P13" t="n">
-        <v>111.4816456920239</v>
+        <v>113.5391365678199</v>
       </c>
       <c r="Q13" t="n">
-        <v>166.3310578110929</v>
+        <v>168.3885486868889</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999756023864438</v>
+        <v>0.9999915692608768</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990430225505599</v>
+        <v>0.9989625762514792</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999993504538681</v>
+        <v>0.999965000691746</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997474557387014</v>
+        <v>0.9999370681847729</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999281426175937</v>
+        <v>0.9999490980175058</v>
       </c>
       <c r="G14" t="n">
-        <v>2.277410132328477e-05</v>
+        <v>7.869724904812613e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008932964425972382</v>
+        <v>0.0009683895316045389</v>
       </c>
       <c r="I14" t="n">
-        <v>7.583077254264923e-06</v>
+        <v>9.365676349346367e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001248834989468668</v>
+        <v>3.12346574928035e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>6.623053392898018e-05</v>
+        <v>2.029981459967569e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003423735264248008</v>
+        <v>0.0002051999611156359</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004772221843469222</v>
+        <v>0.002805302996970668</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000027882986921</v>
+        <v>1.000009635130426</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004975385207206789</v>
+        <v>0.002924730553329473</v>
       </c>
       <c r="P14" t="n">
-        <v>111.3797731490171</v>
+        <v>113.5049749021234</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.2291852680861</v>
+        <v>168.3543870211925</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999744205597502</v>
+        <v>0.9999913941509744</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990391885571661</v>
+        <v>0.9989588797122142</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999934579218923</v>
+        <v>0.9999627662908657</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997298689734454</v>
+        <v>0.9999329343177759</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999923392337515</v>
+        <v>0.9999457721256743</v>
       </c>
       <c r="G15" t="n">
-        <v>2.387728466555676e-05</v>
+        <v>8.033182312297641e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008968753071373781</v>
+        <v>0.0009718400887491791</v>
       </c>
       <c r="I15" t="n">
-        <v>7.637499672027402e-06</v>
+        <v>9.963593180355295e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001335801795565161</v>
+        <v>3.328640062639747e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>7.060883961427176e-05</v>
+        <v>2.162618705607973e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003410115814919267</v>
+        <v>0.0002045594544957508</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004886438853148248</v>
+        <v>0.002834286914251562</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000029233646</v>
+        <v>1.000009835256029</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005094464671449657</v>
+        <v>0.002954948375973995</v>
       </c>
       <c r="P15" t="n">
-        <v>111.2851659667551</v>
+        <v>113.4638596112231</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.1345780858241</v>
+        <v>168.3132717302921</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999732961817407</v>
+        <v>0.999991200927836</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990357718112826</v>
+        <v>0.9989555268784345</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999934003338095</v>
+        <v>0.9999606913391312</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999713693458927</v>
+        <v>0.9999291115586381</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999190148888577</v>
+        <v>0.9999427001742952</v>
       </c>
       <c r="G16" t="n">
-        <v>2.492684218288621e-05</v>
+        <v>8.21354763046191e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009000646894419199</v>
+        <v>0.0009749698119101603</v>
       </c>
       <c r="I16" t="n">
-        <v>7.704730444296062e-06</v>
+        <v>1.05188420511077e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001415789946550847</v>
+        <v>3.518373303155053e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>7.464350873398515e-05</v>
+        <v>2.285128754132911e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003397086458269618</v>
+        <v>0.000203978170403843</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004992678858377154</v>
+        <v>0.002865928755301134</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000030518649439</v>
+        <v>1.000010056082473</v>
       </c>
       <c r="O16" t="n">
-        <v>0.005205227533648287</v>
+        <v>0.002987937275704688</v>
       </c>
       <c r="P16" t="n">
-        <v>111.1991306716099</v>
+        <v>113.4194512338725</v>
       </c>
       <c r="Q16" t="n">
-        <v>166.0485427906789</v>
+        <v>168.2688633529416</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999722312848794</v>
+        <v>0.9999909971982067</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990326541044025</v>
+        <v>0.9989524856860827</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999933347049609</v>
+        <v>0.9999587990002698</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9996987897803985</v>
+        <v>0.9999255816214498</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999149776688937</v>
+        <v>0.9999398687196077</v>
       </c>
       <c r="G17" t="n">
-        <v>2.592087665928515e-05</v>
+        <v>8.403720296702967e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009029749319630205</v>
+        <v>0.0009778086314775809</v>
       </c>
       <c r="I17" t="n">
-        <v>7.781348347864569e-06</v>
+        <v>1.102522443990693e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001489488850348628</v>
+        <v>3.693573046951024e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>7.836459103410256e-05</v>
+        <v>2.398047745470859e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003386431000297023</v>
+        <v>0.0002034361060205219</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005091254919888135</v>
+        <v>0.002898917090346491</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000031735674423</v>
+        <v>1.000010288916335</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005308000182178368</v>
+        <v>0.003022329992468193</v>
       </c>
       <c r="P17" t="n">
-        <v>111.1209237306409</v>
+        <v>113.3736721153966</v>
       </c>
       <c r="Q17" t="n">
-        <v>165.97033584971</v>
+        <v>168.2230842344656</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999712405218117</v>
+        <v>0.9999907913118166</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990298756711972</v>
+        <v>0.9989497189716673</v>
       </c>
       <c r="D18" t="n">
-        <v>0.99999326940484</v>
+        <v>0.9999570447834824</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999685246785382</v>
+        <v>0.9999223588750268</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999113031542721</v>
+        <v>0.9999372750335872</v>
       </c>
       <c r="G18" t="n">
-        <v>2.684571049356144e-05</v>
+        <v>8.595906204578499e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009055684774010014</v>
+        <v>0.0009803912379396131</v>
       </c>
       <c r="I18" t="n">
-        <v>7.857582480735362e-06</v>
+        <v>1.149464590843794e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001556459154689911</v>
+        <v>3.853526133238469e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>8.175136991703163e-05</v>
+        <v>2.501484473800584e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003378119284066309</v>
+        <v>0.0002029334781326733</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005181284637381104</v>
+        <v>0.002931877590312818</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000032867975072</v>
+        <v>1.000010524215067</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00540186265113222</v>
+        <v>0.003056693689155728</v>
       </c>
       <c r="P18" t="n">
-        <v>111.0508090158525</v>
+        <v>113.3284489815261</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.9002211349215</v>
+        <v>168.1778611005951</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999702910540184</v>
+        <v>0.9999905837633331</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990273318935575</v>
+        <v>0.9989472118586017</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999931915916463</v>
+        <v>0.9999554216465524</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9996725799991745</v>
+        <v>0.9999193874402876</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999078590396236</v>
+        <v>0.9999348776882959</v>
       </c>
       <c r="G19" t="n">
-        <v>2.773199700182984e-05</v>
+        <v>8.789643603564557e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009079429821686428</v>
+        <v>0.0009827315179368966</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948424905982906e-06</v>
+        <v>1.192899092595157e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001619096593920432</v>
+        <v>4.001005982663572e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>8.492579047679314e-05</v>
+        <v>2.597091093740961e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003371614154119665</v>
+        <v>0.0002024882093785084</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005266117830226536</v>
+        <v>0.002964733310698377</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000033953081122</v>
+        <v>1.000010761413334</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005490307368626</v>
+        <v>0.003090948145578817</v>
       </c>
       <c r="P19" t="n">
-        <v>110.9858473699927</v>
+        <v>113.2838727855175</v>
       </c>
       <c r="Q19" t="n">
-        <v>165.8352594890617</v>
+        <v>168.1332849045865</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999694267406364</v>
+        <v>0.9999903835789722</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990250787882443</v>
+        <v>0.9989449524121746</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999931241289648</v>
+        <v>0.9999539628961007</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9996612262829427</v>
+        <v>0.9999166673323039</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999047675980862</v>
+        <v>0.9999327011751291</v>
       </c>
       <c r="G20" t="n">
-        <v>2.853879560498392e-05</v>
+        <v>8.976506917410205e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009100461570786327</v>
+        <v>0.0009848406119982648</v>
       </c>
       <c r="I20" t="n">
-        <v>8.027183703946972e-06</v>
+        <v>1.231934677255442e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001675240883312702</v>
+        <v>4.136011847200143e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>8.777515426906259e-05</v>
+        <v>2.683890883442237e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003364343005814485</v>
+        <v>0.0002020263456986596</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005342171431635634</v>
+        <v>0.002996081927686592</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000034940867844</v>
+        <v>1.00001099019546</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005569598729299742</v>
+        <v>0.003123631338092804</v>
       </c>
       <c r="P20" t="n">
-        <v>110.9284922941037</v>
+        <v>113.2417994720451</v>
       </c>
       <c r="Q20" t="n">
-        <v>165.7779044131728</v>
+        <v>168.0912115911141</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999686203554421</v>
+        <v>0.9999901907346612</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990230073504083</v>
+        <v>0.9989428950377475</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999930541602869</v>
+        <v>0.9999526263814538</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9996508014120237</v>
+        <v>0.9999141965276253</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999019262435962</v>
+        <v>0.9999307121666069</v>
       </c>
       <c r="G21" t="n">
-        <v>2.929152078755955e-05</v>
+        <v>9.156518616714694e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009119797533729679</v>
+        <v>0.000986761080717732</v>
       </c>
       <c r="I21" t="n">
-        <v>8.108868108375765e-06</v>
+        <v>1.267699280170499e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001726792019329172</v>
+        <v>4.258644155818184e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>9.039401427557985e-05</v>
+        <v>2.763212949618921e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000335785632149538</v>
+        <v>0.0002016424860254729</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005412164150093708</v>
+        <v>0.00302597399471884</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000035862450923</v>
+        <v>1.000011210588959</v>
       </c>
       <c r="O21" t="n">
-        <v>0.005642571182687478</v>
+        <v>0.003154795972303724</v>
       </c>
       <c r="P21" t="n">
-        <v>110.876424953479</v>
+        <v>113.2020890303964</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.7258370725481</v>
+        <v>168.0515011494654</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999678543063371</v>
+        <v>0.9999900057994215</v>
       </c>
       <c r="C22" t="n">
-        <v>0.999021111438147</v>
+        <v>0.9989410477366388</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999929805379917</v>
+        <v>0.9999514205603601</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9996410579254583</v>
+        <v>0.9999119173463923</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998992673285181</v>
+        <v>0.9999288914284852</v>
       </c>
       <c r="G22" t="n">
-        <v>3.000659400153104e-05</v>
+        <v>9.329147545278675e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009137495042479635</v>
+        <v>0.0009884854552154802</v>
       </c>
       <c r="I22" t="n">
-        <v>8.194817900896794e-06</v>
+        <v>1.299966575330556e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001774973699956782</v>
+        <v>4.371765706372364e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>9.284472093087296e-05</v>
+        <v>2.835824357845718e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003353086486149038</v>
+        <v>0.0002012699072323886</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005477827489208751</v>
+        <v>0.003054365326099462</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000036737935615</v>
+        <v>1.000011421943518</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005711029946090498</v>
+        <v>0.003184395981439377</v>
       </c>
       <c r="P22" t="n">
-        <v>110.8281868008071</v>
+        <v>113.1647338286895</v>
       </c>
       <c r="Q22" t="n">
-        <v>165.6775989198762</v>
+        <v>168.0141459477586</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.99996715708286</v>
+        <v>0.9999898304382414</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990194002088409</v>
+        <v>0.9989393703989933</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999929105858643</v>
+        <v>0.9999503111503112</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9996322924007606</v>
+        <v>0.999909849286993</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998968684865214</v>
+        <v>0.9999272312818013</v>
       </c>
       <c r="G23" t="n">
-        <v>3.065742151275814e-05</v>
+        <v>9.49283950943534e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009153468616908396</v>
+        <v>0.000990051176281046</v>
       </c>
       <c r="I23" t="n">
-        <v>8.276482983664344e-06</v>
+        <v>1.329653949097967e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001818319345141301</v>
+        <v>4.474408744362898e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>9.505571973057088e-05</v>
+        <v>2.902031346730432e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003348055648864097</v>
+        <v>0.0002009482082393226</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00553691443971804</v>
+        <v>0.003081045197564512</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000037534762446</v>
+        <v>1.000011622356296</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005772632350409818</v>
+        <v>0.003212211670267641</v>
       </c>
       <c r="P23" t="n">
-        <v>110.7852715748907</v>
+        <v>113.1299455588167</v>
       </c>
       <c r="Q23" t="n">
-        <v>165.6346836939597</v>
+        <v>167.9793576778858</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999665211738884</v>
+        <v>0.9999896662691804</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990178640567575</v>
+        <v>0.9989378634504107</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999928486355366</v>
+        <v>0.9999493079760812</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9996243810126506</v>
+        <v>0.9999079636278267</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998947037329958</v>
+        <v>0.99992572132719</v>
       </c>
       <c r="G24" t="n">
-        <v>3.125101462450669e-05</v>
+        <v>9.646084121741398e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009167807922314484</v>
+        <v>0.0009914578466354844</v>
       </c>
       <c r="I24" t="n">
-        <v>8.348806425776663e-06</v>
+        <v>1.356498494399288e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001857441272664801</v>
+        <v>4.567998795746431e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>9.705096053982989e-05</v>
+        <v>2.962248645072859e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003343365128388635</v>
+        <v>0.0002006553207266905</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005590260693787606</v>
+        <v>0.003105814566541505</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000038261515556</v>
+        <v>1.000011809978079</v>
       </c>
       <c r="O24" t="n">
-        <v>0.005828249664957094</v>
+        <v>0.003238035522561648</v>
       </c>
       <c r="P24" t="n">
-        <v>110.7469174286495</v>
+        <v>113.0979170309235</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.5963295477185</v>
+        <v>167.9473291499925</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999659331212624</v>
+        <v>0.9999895120543847</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990164516331393</v>
+        <v>0.9989364996254486</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999927842588868</v>
+        <v>0.9999483973842939</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9996171112551913</v>
+        <v>0.9999062489112109</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998927176762057</v>
+        <v>0.9999243453627198</v>
       </c>
       <c r="G25" t="n">
-        <v>3.179993593839897e-05</v>
+        <v>9.79003686427747e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009180992276808394</v>
+        <v>0.0009927309173725801</v>
       </c>
       <c r="I25" t="n">
-        <v>8.423962459285662e-06</v>
+        <v>1.380865570184562e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001893390327429978</v>
+        <v>4.653104534389294e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>9.888149760114176e-05</v>
+        <v>3.017122389223525e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000333918629384252</v>
+        <v>0.000200382258966515</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005639143191868688</v>
+        <v>0.003128903460363945</v>
       </c>
       <c r="N25" t="n">
-        <v>1.0000389335757</v>
+        <v>1.00001198622356</v>
       </c>
       <c r="O25" t="n">
-        <v>0.005879213192182209</v>
+        <v>0.003262107358394709</v>
       </c>
       <c r="P25" t="n">
-        <v>110.7120925653919</v>
+        <v>113.0682906718513</v>
       </c>
       <c r="Q25" t="n">
-        <v>165.5615046844609</v>
+        <v>167.9177027909203</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999653927534838</v>
+        <v>0.9999893706069319</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990151639442553</v>
+        <v>0.9989352658166255</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999927277195627</v>
+        <v>0.9999475852335508</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9996104829164288</v>
+        <v>0.9999046940277235</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998909039420939</v>
+        <v>0.9999231090914451</v>
       </c>
       <c r="G26" t="n">
-        <v>3.230434554028698e-05</v>
+        <v>9.922071852581664e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009193012287310154</v>
+        <v>0.000993882623750984</v>
       </c>
       <c r="I26" t="n">
-        <v>8.489968866169013e-06</v>
+        <v>1.402598402593171e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001926167557552206</v>
+        <v>4.730277349117329e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001005532058461061</v>
+        <v>3.066425140203589e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003335241498069114</v>
+        <v>0.0002001201833793833</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005683691189736383</v>
+        <v>0.003149932039359209</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000039551138876</v>
+        <v>1.000012147877792</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005925657690546201</v>
+        <v>0.00328403116753296</v>
       </c>
       <c r="P26" t="n">
-        <v>110.6806175998679</v>
+        <v>113.0414976047357</v>
       </c>
       <c r="Q26" t="n">
-        <v>165.5300297189369</v>
+        <v>167.8909097238048</v>
       </c>
     </row>
   </sheetData>
